--- a/lesson-18-ai/vanna/docs/LLM-evaluations.xlsx
+++ b/lesson-18-ai/vanna/docs/LLM-evaluations.xlsx
@@ -33,13 +33,55 @@
       <text>
         <r>
           <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">SELECT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Monospace"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <i val="true"/>
+            <sz val="10"/>
+            <color rgb="FFFF3737"/>
+            <rFont val="Monospace"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">name</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Monospace"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
             <b val="true"/>
             <sz val="10"/>
             <color rgb="FF800000"/>
             <rFont val="Monospace"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve">SELECT</t>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">FROM</t>
         </r>
         <r>
           <rPr>
@@ -47,6 +89,7 @@
             <color rgb="FF000000"/>
             <rFont val="Monospace"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -58,8 +101,21 @@
             <color rgb="FFFF3737"/>
             <rFont val="Monospace"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve">name</t>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">sqlite_master
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="10"/>
+            <color rgb="FF800000"/>
+            <rFont val="Monospace"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">WHERE</t>
         </r>
         <r>
           <rPr>
@@ -67,6 +123,7 @@
             <color rgb="FF000000"/>
             <rFont val="Monospace"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -77,8 +134,9 @@
             <color rgb="FF800000"/>
             <rFont val="Monospace"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve">FROM</t>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">type</t>
         </r>
         <r>
           <rPr>
@@ -86,56 +144,7 @@
             <color rgb="FF000000"/>
             <rFont val="Monospace"/>
             <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <i val="true"/>
-            <sz val="10"/>
-            <color rgb="FFFF3737"/>
-            <rFont val="Monospace"/>
-            <family val="0"/>
-          </rPr>
-          <t xml:space="preserve">sqlite_master
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF800000"/>
-            <rFont val="Monospace"/>
-            <family val="0"/>
-          </rPr>
-          <t xml:space="preserve">WHERE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Monospace"/>
-            <family val="0"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="10"/>
-            <color rgb="FF800000"/>
-            <rFont val="Monospace"/>
-            <family val="0"/>
-          </rPr>
-          <t xml:space="preserve">type</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Monospace"/>
-            <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> = </t>
         </r>
@@ -146,6 +155,7 @@
             <color rgb="FF008000"/>
             <rFont val="Monospace"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">'table'</t>
         </r>
@@ -155,6 +165,7 @@
             <color rgb="FFFF0000"/>
             <rFont val="Monospace"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">;</t>
         </r>
@@ -167,6 +178,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SQL ok, plotly wrong</t>
         </r>
@@ -179,6 +191,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SQL ok, plotly not good</t>
         </r>
@@ -191,6 +204,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SQL ok, plotly not good</t>
         </r>
@@ -203,6 +217,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SQL ok, plotly not good</t>
         </r>
@@ -215,6 +230,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SQL ok, not plotly
 </t>
@@ -228,6 +244,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Plotly is nice</t>
         </r>
@@ -240,6 +257,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SQL error</t>
         </r>
@@ -252,6 +270,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Plotly is impressive</t>
         </r>
@@ -264,6 +283,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Plotly is impressive
 </t>
@@ -277,6 +297,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Add group by month</t>
         </r>
@@ -289,6 +310,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Does a nice job of concat first/last name</t>
         </r>
@@ -301,6 +323,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Missing single-quote</t>
         </r>
@@ -313,6 +336,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Joined 5 tables (not necessary)</t>
         </r>
@@ -325,6 +349,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Plotly failed</t>
         </r>
@@ -337,6 +362,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Plotly not good</t>
         </r>
@@ -349,6 +375,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SQLite doesn't seem to have a way to do this</t>
         </r>
@@ -361,6 +388,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Timed out
 </t>
@@ -374,6 +402,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Gives explanation
 </t>
@@ -387,6 +416,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">SQL ok, plotly poor</t>
         </r>
@@ -666,7 +696,7 @@
     <t xml:space="preserve">Hint: album quantity is found in invoice_items,           Find the top 5 customers who bought the most albums in total quantity (across all invoices):</t>
   </si>
   <si>
-    <t xml:space="preserve">     Find the top 5 customers who spent the most money overall,             Hint: order total can be found on invoices table, calculation using invoice_items detail table is unnecessary </t>
+    <t xml:space="preserve">Find the top 5 customers who spent the most money overall,             Hint: order total can be found on invoices table, calculation using invoice_items detail table is unnecessary </t>
   </si>
   <si>
     <t xml:space="preserve">Get all playlists containing at least 10 tracks and the total duration of those tracks:</t>
@@ -691,6 +721,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -712,30 +743,27 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF111111"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF800000"/>
-      <name val="Monospace"/>
-      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Monospace"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -744,6 +772,15 @@
       <color rgb="FFFF3737"/>
       <name val="Monospace"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Monospace"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -751,12 +788,14 @@
       <color rgb="FF008000"/>
       <name val="Monospace"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Monospace"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -850,6 +889,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -875,10 +918,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1020,14 +1059,14 @@
       <selection pane="bottomRight" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="57.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="38.9"/>
@@ -1078,7 +1117,7 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1089,7 +1128,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1104,7 +1143,7 @@
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1130,18 +1169,18 @@
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1156,10 +1195,10 @@
       <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1185,7 +1224,7 @@
       <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1205,13 +1244,13 @@
       <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1231,7 +1270,7 @@
       <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1242,58 +1281,58 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-    </row>
-    <row r="10" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+    <row r="11" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
+      <c r="E11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1336,63 +1375,63 @@
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
-      <selection pane="bottomRight" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="P26" activeCellId="0" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="44.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="50.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="30.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="25.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="45.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="13.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>62</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1400,28 +1439,28 @@
       <c r="J2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" s="0" t="s">
+      <c r="K2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1429,28 +1468,28 @@
       <c r="J3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="0" t="s">
+      <c r="K3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" s="0" t="s">
+      <c r="P3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1458,28 +1497,28 @@
       <c r="J4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" s="0" t="s">
+      <c r="K4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1487,25 +1526,25 @@
       <c r="J5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="0" t="s">
+      <c r="K5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" s="0" t="s">
+      <c r="P5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1513,22 +1552,22 @@
       <c r="J6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="0" t="s">
+      <c r="K6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1536,22 +1575,22 @@
       <c r="J7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="0" t="s">
+      <c r="K7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="0" t="s">
+      <c r="O7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1559,19 +1598,19 @@
       <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="0" t="s">
+      <c r="K8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1579,19 +1618,19 @@
       <c r="J9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="0" t="s">
+      <c r="K9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1599,19 +1638,19 @@
       <c r="J10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="0" t="s">
+      <c r="K10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1622,16 +1661,16 @@
       <c r="K11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="0" t="s">
+      <c r="N11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1639,16 +1678,16 @@
       <c r="J12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="0" t="s">
+      <c r="K12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>65</v>
       </c>
       <c r="O12" s="11" t="s">
@@ -1659,19 +1698,19 @@
       <c r="J13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="0" t="s">
+      <c r="K13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1679,16 +1718,16 @@
       <c r="J14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" s="0" t="s">
+      <c r="K14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>65</v>
       </c>
       <c r="O14" s="11" t="s">
@@ -1699,19 +1738,19 @@
       <c r="J15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" s="0" t="s">
+      <c r="K15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1719,19 +1758,19 @@
       <c r="J16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O16" s="0" t="s">
+      <c r="K16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1739,19 +1778,19 @@
       <c r="J17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="0" t="s">
+      <c r="K17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>65</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="N17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O17" s="0" t="s">
+      <c r="O17" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1759,16 +1798,16 @@
       <c r="J18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N18" s="0" t="s">
+      <c r="K18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>65</v>
       </c>
       <c r="O18" s="11" t="s">
@@ -1779,10 +1818,10 @@
       <c r="J19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="0" t="s">
+      <c r="K19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>65</v>
       </c>
       <c r="M19" s="13" t="s">
@@ -1791,7 +1830,7 @@
       <c r="N19" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="O19" s="0" t="s">
+      <c r="O19" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1799,19 +1838,19 @@
       <c r="J20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K20" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O20" s="0" t="s">
+      <c r="K20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1819,16 +1858,16 @@
       <c r="J21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" s="3" t="s">
         <v>65</v>
       </c>
       <c r="L21" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="0" t="s">
+      <c r="M21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>65</v>
       </c>
       <c r="O21" s="11" t="s">
@@ -1839,19 +1878,19 @@
       <c r="J22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22" s="0" t="s">
+      <c r="K22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1859,10 +1898,10 @@
       <c r="J23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K23" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23" s="0" t="s">
+      <c r="K23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>65</v>
       </c>
       <c r="M23" s="13" t="s">
@@ -1871,7 +1910,7 @@
       <c r="N23" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="O23" s="0" t="s">
+      <c r="O23" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1879,16 +1918,16 @@
       <c r="J24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" s="0" t="s">
+      <c r="K24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>65</v>
       </c>
       <c r="O24" s="11" t="s">
@@ -1899,19 +1938,19 @@
       <c r="J25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" s="3" t="s">
         <v>65</v>
       </c>
       <c r="L25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="M25" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="O25" s="0" t="s">
+      <c r="O25" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1942,7 +1981,7 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
-      <c r="AMJ28" s="0"/>
+      <c r="AMJ28" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="M1:Q4"/>
